--- a/ep/ep/export/flourish/Romania_group_party.xlsx
+++ b/ep/ep/export/flourish/Romania_group_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="41">
   <si>
     <t>name1</t>
   </si>
@@ -103,17 +103,47 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/aldero.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fdgr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pmp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pnl.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pntcd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/prm.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/psd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/unpr.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +158,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,16 +199,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,6 +573,9 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E2">
         <v>0.962</v>
       </c>
@@ -562,6 +608,9 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E3">
         <v>0.668</v>
       </c>
@@ -576,6 +625,9 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E4">
         <v>0.638</v>
       </c>
@@ -617,6 +669,9 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L5">
         <v>0.829</v>
       </c>
@@ -643,6 +698,9 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E6">
         <v>0.847</v>
       </c>
@@ -693,6 +751,9 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L7">
         <v>0.837</v>
       </c>
@@ -707,6 +768,9 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E8">
         <v>0.5669999999999999</v>
       </c>
@@ -739,6 +803,9 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E9">
         <v>0.762</v>
       </c>
@@ -789,6 +856,9 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E10">
         <v>0.6870000000000001</v>
       </c>
@@ -839,6 +909,9 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L11">
         <v>0.8090000000000001</v>
       </c>
@@ -859,6 +932,9 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="M12">
         <v>0.7</v>
       </c>
@@ -885,6 +961,9 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M13">
         <v>0.787</v>
       </c>
@@ -911,6 +990,9 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M14">
         <v>0.8100000000000001</v>
       </c>
@@ -934,6 +1016,9 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M15">
         <v>0.821</v>
       </c>
@@ -960,6 +1045,9 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="M16">
         <v>0.702</v>
       </c>
@@ -986,6 +1074,9 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="M17">
         <v>0.793</v>
       </c>
@@ -1012,6 +1103,9 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="M18">
         <v>0.705</v>
       </c>
@@ -1029,6 +1123,9 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E19">
         <v>0.543</v>
       </c>
@@ -1055,6 +1152,9 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E20">
         <v>0.644</v>
       </c>
@@ -1069,6 +1169,9 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E21">
         <v>0.8070000000000001</v>
       </c>
@@ -1095,6 +1198,9 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M22">
         <v>0.5659999999999999</v>
       </c>
@@ -1118,6 +1224,9 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E23">
         <v>0.5679999999999999</v>
       </c>
@@ -1144,6 +1253,9 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E24">
         <v>0.832</v>
       </c>
@@ -1158,6 +1270,9 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E25">
         <v>0.548</v>
       </c>
@@ -1184,6 +1299,9 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E26">
         <v>0.5639999999999999</v>
       </c>
@@ -1210,6 +1328,9 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="M27">
         <v>0.511</v>
       </c>
@@ -1227,6 +1348,9 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E28">
         <v>0.597</v>
       </c>
@@ -1250,6 +1374,9 @@
       <c r="C29" t="s">
         <v>23</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E29">
         <v>0.53</v>
       </c>
@@ -1264,6 +1391,9 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L30">
         <v>0.861</v>
       </c>
@@ -1281,6 +1411,9 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E31">
         <v>0.604</v>
       </c>
@@ -1319,6 +1452,9 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L32">
         <v>0.834</v>
       </c>
@@ -1333,6 +1469,9 @@
       <c r="C33" t="s">
         <v>27</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E33">
         <v>0.698</v>
       </c>
@@ -1365,6 +1504,9 @@
       <c r="C34" t="s">
         <v>28</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E34">
         <v>0.631</v>
       </c>
@@ -1403,6 +1545,9 @@
       <c r="C35" t="s">
         <v>29</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E35">
         <v>0.615</v>
       </c>
@@ -1441,6 +1586,9 @@
       <c r="C36" t="s">
         <v>22</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E36">
         <v>0.708</v>
       </c>
@@ -1473,6 +1621,9 @@
       <c r="C37" t="s">
         <v>23</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E37">
         <v>0.881</v>
       </c>
@@ -1487,6 +1638,9 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E38">
         <v>0.73</v>
       </c>
@@ -1528,6 +1682,9 @@
       <c r="C39" t="s">
         <v>24</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L39">
         <v>0.975</v>
       </c>
@@ -1554,6 +1711,9 @@
       <c r="C40" t="s">
         <v>25</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E40">
         <v>0.863</v>
       </c>
@@ -1604,6 +1764,9 @@
       <c r="C41" t="s">
         <v>26</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L41">
         <v>0.956</v>
       </c>
@@ -1618,6 +1781,9 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E42">
         <v>0.608</v>
       </c>
@@ -1650,6 +1816,9 @@
       <c r="C43" t="s">
         <v>28</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E43">
         <v>0.646</v>
       </c>
@@ -1700,6 +1869,9 @@
       <c r="C44" t="s">
         <v>29</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E44">
         <v>0.892</v>
       </c>
@@ -1750,6 +1922,9 @@
       <c r="C45" t="s">
         <v>30</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L45">
         <v>0.8169999999999999</v>
       </c>
@@ -1770,6 +1945,9 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E46">
         <v>0.759</v>
       </c>
@@ -1802,6 +1980,9 @@
       <c r="C47" t="s">
         <v>23</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E47">
         <v>0.542</v>
       </c>
@@ -1816,6 +1997,9 @@
       <c r="C48" t="s">
         <v>19</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E48">
         <v>0.697</v>
       </c>
@@ -1857,6 +2041,9 @@
       <c r="C49" t="s">
         <v>24</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="L49">
         <v>0.82</v>
       </c>
@@ -1883,6 +2070,9 @@
       <c r="C50" t="s">
         <v>25</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E50">
         <v>0.701</v>
       </c>
@@ -1933,6 +2123,9 @@
       <c r="C51" t="s">
         <v>26</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L51">
         <v>0.774</v>
       </c>
@@ -1947,6 +2140,9 @@
       <c r="C52" t="s">
         <v>27</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E52">
         <v>0.578</v>
       </c>
@@ -1979,6 +2175,9 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E53">
         <v>0.952</v>
       </c>
@@ -2029,6 +2228,9 @@
       <c r="C54" t="s">
         <v>29</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E54">
         <v>0.631</v>
       </c>
@@ -2079,6 +2281,9 @@
       <c r="C55" t="s">
         <v>30</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L55">
         <v>0.99</v>
       </c>
@@ -2090,6 +2295,62 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Romania_group_party.xlsx
+++ b/ep/ep/export/flourish/Romania_group_party.xlsx
@@ -70,13 +70,13 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>PPE</t>
   </si>
   <si>
     <t>S&amp;D</t>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -959,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -1352,16 +1352,25 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>0.597</v>
+        <v>0.708</v>
       </c>
       <c r="L28">
-        <v>0.889</v>
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.774</v>
+      </c>
+      <c r="N28">
+        <v>0.761</v>
+      </c>
+      <c r="O28">
+        <v>0.762</v>
       </c>
       <c r="P28">
-        <v>0.695</v>
+        <v>0.826</v>
       </c>
       <c r="Q28">
-        <v>0.924</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1378,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="E29">
-        <v>0.53</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1389,16 +1398,40 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>0.73</v>
+      </c>
+      <c r="F30">
+        <v>0.992</v>
+      </c>
+      <c r="G30">
+        <v>0.976</v>
+      </c>
+      <c r="K30">
+        <v>0.97</v>
       </c>
       <c r="L30">
-        <v>0.861</v>
+        <v>0.835</v>
+      </c>
+      <c r="M30">
+        <v>0.862</v>
+      </c>
+      <c r="N30">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.8139999999999999</v>
       </c>
       <c r="P30">
-        <v>0.602</v>
+        <v>0.872</v>
+      </c>
+      <c r="Q30">
+        <v>0.883</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1409,37 +1442,25 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <v>0.604</v>
-      </c>
-      <c r="G31">
-        <v>0.707</v>
-      </c>
-      <c r="H31">
-        <v>0.667</v>
-      </c>
-      <c r="I31">
-        <v>0.78</v>
-      </c>
-      <c r="J31">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="K31">
-        <v>0.791</v>
+        <v>34</v>
       </c>
       <c r="L31">
-        <v>0.832</v>
+        <v>0.975</v>
+      </c>
+      <c r="M31">
+        <v>0.972</v>
+      </c>
+      <c r="N31">
+        <v>0.972</v>
+      </c>
+      <c r="O31">
+        <v>0.977</v>
       </c>
       <c r="P31">
-        <v>0.643</v>
-      </c>
-      <c r="Q31">
-        <v>0.756</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1450,13 +1471,49 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>0.863</v>
+      </c>
+      <c r="F32">
+        <v>0.91</v>
+      </c>
+      <c r="G32">
+        <v>0.921</v>
+      </c>
+      <c r="H32">
+        <v>0.91</v>
+      </c>
+      <c r="I32">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.922</v>
+      </c>
+      <c r="K32">
+        <v>0.912</v>
       </c>
       <c r="L32">
-        <v>0.834</v>
+        <v>0.919</v>
+      </c>
+      <c r="M32">
+        <v>0.954</v>
+      </c>
+      <c r="N32">
+        <v>0.962</v>
+      </c>
+      <c r="O32">
+        <v>0.973</v>
+      </c>
+      <c r="P32">
+        <v>0.972</v>
+      </c>
+      <c r="Q32">
+        <v>0.968</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -1467,31 +1524,13 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33">
-        <v>0.698</v>
-      </c>
-      <c r="G33">
-        <v>0.981</v>
-      </c>
-      <c r="H33">
-        <v>0.958</v>
-      </c>
-      <c r="I33">
-        <v>0.905</v>
-      </c>
-      <c r="J33">
-        <v>0.822</v>
-      </c>
-      <c r="K33">
-        <v>0.899</v>
+        <v>36</v>
       </c>
       <c r="L33">
-        <v>0.929</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -1502,37 +1541,31 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0.631</v>
+        <v>0.608</v>
       </c>
       <c r="G34">
-        <v>0.675</v>
+        <v>0.734</v>
       </c>
       <c r="H34">
-        <v>0.787</v>
+        <v>0.672</v>
       </c>
       <c r="I34">
-        <v>0.891</v>
+        <v>0.761</v>
       </c>
       <c r="J34">
-        <v>0.761</v>
+        <v>0.546</v>
       </c>
       <c r="K34">
-        <v>0.895</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="L34">
-        <v>0.891</v>
-      </c>
-      <c r="P34">
-        <v>0.714</v>
-      </c>
-      <c r="Q34">
-        <v>0.983</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -1543,37 +1576,49 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>0.615</v>
+        <v>0.646</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
       </c>
       <c r="G35">
         <v>0.737</v>
       </c>
       <c r="H35">
-        <v>0.667</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I35">
-        <v>0.774</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J35">
-        <v>0.667</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K35">
-        <v>0.776</v>
+        <v>0.79</v>
       </c>
       <c r="L35">
-        <v>0.853</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.789</v>
+      </c>
+      <c r="N35">
+        <v>0.775</v>
+      </c>
+      <c r="O35">
+        <v>0.737</v>
       </c>
       <c r="P35">
-        <v>0.661</v>
+        <v>0.796</v>
       </c>
       <c r="Q35">
-        <v>0.787</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -1581,34 +1626,52 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>0.708</v>
+        <v>0.892</v>
+      </c>
+      <c r="F36">
+        <v>0.918</v>
+      </c>
+      <c r="G36">
+        <v>0.962</v>
+      </c>
+      <c r="H36">
+        <v>0.962</v>
+      </c>
+      <c r="I36">
+        <v>0.973</v>
+      </c>
+      <c r="J36">
+        <v>0.978</v>
+      </c>
+      <c r="K36">
+        <v>0.958</v>
       </c>
       <c r="L36">
-        <v>0.8120000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="M36">
-        <v>0.774</v>
+        <v>0.969</v>
       </c>
       <c r="N36">
-        <v>0.761</v>
+        <v>0.965</v>
       </c>
       <c r="O36">
-        <v>0.762</v>
+        <v>0.975</v>
       </c>
       <c r="P36">
-        <v>0.826</v>
+        <v>0.961</v>
       </c>
       <c r="Q36">
-        <v>0.797</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -1616,16 +1679,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37">
-        <v>0.881</v>
+        <v>40</v>
+      </c>
+      <c r="L37">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="M37">
+        <v>0.785</v>
+      </c>
+      <c r="N37">
+        <v>0.771</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -1636,40 +1705,22 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.73</v>
-      </c>
-      <c r="F38">
-        <v>0.992</v>
-      </c>
-      <c r="G38">
-        <v>0.976</v>
-      </c>
-      <c r="K38">
-        <v>0.97</v>
+        <v>0.597</v>
       </c>
       <c r="L38">
-        <v>0.835</v>
-      </c>
-      <c r="M38">
-        <v>0.862</v>
-      </c>
-      <c r="N38">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="O38">
-        <v>0.8139999999999999</v>
+        <v>0.889</v>
       </c>
       <c r="P38">
-        <v>0.872</v>
+        <v>0.695</v>
       </c>
       <c r="Q38">
-        <v>0.883</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -1680,25 +1731,13 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39">
-        <v>0.975</v>
-      </c>
-      <c r="M39">
-        <v>0.972</v>
-      </c>
-      <c r="N39">
-        <v>0.972</v>
-      </c>
-      <c r="O39">
-        <v>0.977</v>
-      </c>
-      <c r="P39">
-        <v>0.97</v>
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>0.53</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -1709,49 +1748,16 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <v>0.863</v>
-      </c>
-      <c r="F40">
-        <v>0.91</v>
-      </c>
-      <c r="G40">
-        <v>0.921</v>
-      </c>
-      <c r="H40">
-        <v>0.91</v>
-      </c>
-      <c r="I40">
-        <v>0.9360000000000001</v>
-      </c>
-      <c r="J40">
-        <v>0.922</v>
-      </c>
-      <c r="K40">
-        <v>0.912</v>
+        <v>34</v>
       </c>
       <c r="L40">
-        <v>0.919</v>
-      </c>
-      <c r="M40">
-        <v>0.954</v>
-      </c>
-      <c r="N40">
-        <v>0.962</v>
-      </c>
-      <c r="O40">
-        <v>0.973</v>
+        <v>0.861</v>
       </c>
       <c r="P40">
-        <v>0.972</v>
-      </c>
-      <c r="Q40">
-        <v>0.968</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -1762,13 +1768,37 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>0.604</v>
+      </c>
+      <c r="G41">
+        <v>0.707</v>
+      </c>
+      <c r="H41">
+        <v>0.667</v>
+      </c>
+      <c r="I41">
+        <v>0.78</v>
+      </c>
+      <c r="J41">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.791</v>
       </c>
       <c r="L41">
-        <v>0.956</v>
+        <v>0.832</v>
+      </c>
+      <c r="P41">
+        <v>0.643</v>
+      </c>
+      <c r="Q41">
+        <v>0.756</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -1779,31 +1809,13 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42">
-        <v>0.608</v>
-      </c>
-      <c r="G42">
-        <v>0.734</v>
-      </c>
-      <c r="H42">
-        <v>0.672</v>
-      </c>
-      <c r="I42">
-        <v>0.761</v>
-      </c>
-      <c r="J42">
-        <v>0.546</v>
-      </c>
-      <c r="K42">
-        <v>0.8149999999999999</v>
+        <v>36</v>
       </c>
       <c r="L42">
-        <v>0.902</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -1814,49 +1826,31 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0.646</v>
-      </c>
-      <c r="F43">
-        <v>0.8</v>
+        <v>0.698</v>
       </c>
       <c r="G43">
-        <v>0.737</v>
+        <v>0.981</v>
       </c>
       <c r="H43">
-        <v>0.6820000000000001</v>
+        <v>0.958</v>
       </c>
       <c r="I43">
-        <v>0.8070000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="J43">
-        <v>0.8169999999999999</v>
+        <v>0.822</v>
       </c>
       <c r="K43">
-        <v>0.79</v>
+        <v>0.899</v>
       </c>
       <c r="L43">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M43">
-        <v>0.789</v>
-      </c>
-      <c r="N43">
-        <v>0.775</v>
-      </c>
-      <c r="O43">
-        <v>0.737</v>
-      </c>
-      <c r="P43">
-        <v>0.796</v>
-      </c>
-      <c r="Q43">
-        <v>0.798</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -1867,49 +1861,37 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44">
-        <v>0.892</v>
-      </c>
-      <c r="F44">
-        <v>0.918</v>
+        <v>0.631</v>
       </c>
       <c r="G44">
-        <v>0.962</v>
+        <v>0.675</v>
       </c>
       <c r="H44">
-        <v>0.962</v>
+        <v>0.787</v>
       </c>
       <c r="I44">
-        <v>0.973</v>
+        <v>0.891</v>
       </c>
       <c r="J44">
-        <v>0.978</v>
+        <v>0.761</v>
       </c>
       <c r="K44">
-        <v>0.958</v>
+        <v>0.895</v>
       </c>
       <c r="L44">
-        <v>0.96</v>
-      </c>
-      <c r="M44">
-        <v>0.969</v>
-      </c>
-      <c r="N44">
-        <v>0.965</v>
-      </c>
-      <c r="O44">
-        <v>0.975</v>
+        <v>0.891</v>
       </c>
       <c r="P44">
-        <v>0.961</v>
+        <v>0.714</v>
       </c>
       <c r="Q44">
-        <v>0.949</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -1920,19 +1902,37 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>0.615</v>
+      </c>
+      <c r="G45">
+        <v>0.737</v>
+      </c>
+      <c r="H45">
+        <v>0.667</v>
+      </c>
+      <c r="I45">
+        <v>0.774</v>
+      </c>
+      <c r="J45">
+        <v>0.667</v>
+      </c>
+      <c r="K45">
+        <v>0.776</v>
       </c>
       <c r="L45">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="M45">
-        <v>0.785</v>
-      </c>
-      <c r="N45">
-        <v>0.771</v>
+        <v>0.853</v>
+      </c>
+      <c r="P45">
+        <v>0.661</v>
+      </c>
+      <c r="Q45">
+        <v>0.787</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -1995,7 +1995,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>33</v>

--- a/ep/ep/export/flourish/Romania_group_party.xlsx
+++ b/ep/ep/export/flourish/Romania_group_party.xlsx
@@ -70,7 +70,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
